--- a/documents/docs/schema设计.xlsx
+++ b/documents/docs/schema设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fieldType" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
   <si>
     <t>字段名</t>
   </si>
@@ -58,9 +58,6 @@
     <t>是</t>
   </si>
   <si>
-    <t>skucode</t>
-  </si>
-  <si>
     <t>商品的sku</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>solr类型</t>
   </si>
   <si>
-    <t xml:space="preserve"> integer</t>
-  </si>
-  <si>
     <t>StrField</t>
   </si>
   <si>
@@ -116,17 +110,249 @@
   </si>
   <si>
     <t>搜索标签</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrField</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品skuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntField</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prd_sku_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku商品名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyField</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>market_price</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_default_sku</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否默认sku</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BooleanField</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:下架；1:上架</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextField</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateField</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual_type_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟分类id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongField</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -134,7 +360,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -142,22 +368,29 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -212,7 +445,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -228,7 +461,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -520,21 +753,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="1" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="12" width="15.77734375" customWidth="1"/>
+    <col min="11" max="12" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -548,41 +781,41 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -591,38 +824,39 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U21"/>
+  <dimension ref="A2:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="7" customWidth="1"/>
     <col min="8" max="8" width="20" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="7"/>
+    <col min="9" max="9" width="17.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -644,7 +878,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -664,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
@@ -679,7 +913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -696,116 +930,411 @@
         <v>12</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="K5" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="J6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="J10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -819,8 +1348,9 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -831,8 +1361,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>